--- a/CashFlow/WST_cashflow.xlsx
+++ b/CashFlow/WST_cashflow.xlsx
@@ -376,10 +376,8 @@
           <t>Depreciation &amp; Amortization</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B3" s="0" t="n">
+        <v>112200000.0</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>109100000.0</v>
@@ -505,10 +503,8 @@
           <t>Non Cash Items (Other)</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B4" s="0" t="n">
+        <v>28400000.0</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>27500000.0</v>
@@ -1400,10 +1396,8 @@
           <t>Change in other assets and liabilities</t>
         </is>
       </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B9" s="0" t="n">
+        <v>24100000.0</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>73400000.0</v>
@@ -1529,10 +1523,8 @@
           <t>Operating Cash Flow</t>
         </is>
       </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B10" s="0" t="n">
+        <v>504100000.0</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>472500000.0</v>
@@ -1658,10 +1650,8 @@
           <t>Capital expenditures</t>
         </is>
       </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B11" s="0" t="n">
+        <v>-197000000.0</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>-174400000.0</v>
@@ -2547,10 +2537,8 @@
           <t>Other investing activities</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B16" s="0" t="n">
+        <v>-5100000.0</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>-5100000.0</v>
@@ -2676,10 +2664,8 @@
           <t>Investing cash flow</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B17" s="0" t="n">
+        <v>-202100000.0</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>-179500000.0</v>
@@ -2805,10 +2791,8 @@
           <t>Repayment/Issuance of Debt (Net)</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B18" s="0" t="n">
+        <v>-2300000.0</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>-2300000.0</v>
@@ -2940,10 +2924,8 @@
           <t>Equity Repurchase (Common, Net)</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B19" s="0" t="n">
+        <v>-122000000.0</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>-86700000.0</v>
@@ -3069,10 +3051,8 @@
           <t>Dividends Paid (Total)</t>
         </is>
       </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B20" s="0" t="n">
+        <v>-48900000.0</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>-48100000.0</v>
@@ -3335,10 +3315,8 @@
           <t>Financing cash flow</t>
         </is>
       </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B22" s="0" t="n">
+        <v>-173200000.0</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>-137100000.0</v>
@@ -3464,10 +3442,8 @@
           <t>Exchange Rate Adjustment</t>
         </is>
       </c>
-      <c r="B23" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B23" s="0" t="n">
+        <v>19600000.0</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>20500000.0</v>
@@ -3593,10 +3569,8 @@
           <t>Change in Cash</t>
         </is>
       </c>
-      <c r="B24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B24" s="0" t="n">
+        <v>148400000.0</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>176400000.0</v>
@@ -3722,10 +3696,8 @@
           <t>Beginning Cash</t>
         </is>
       </c>
-      <c r="B25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B25" s="0" t="n">
+        <v>615500000.0</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>439100000.0</v>
@@ -3851,10 +3823,8 @@
           <t>Ending Cash</t>
         </is>
       </c>
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B26" s="0" t="n">
+        <v>763900000.0</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>615500000.0</v>
@@ -3980,10 +3950,8 @@
           <t>Stock Based Compensation</t>
         </is>
       </c>
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B27" s="0" t="n">
+        <v>34500000.0</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>34000000.0</v>
@@ -4122,7 +4090,7 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>-36300000.0</v>
+        <v>-48900000.0</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>-48100000.0</v>
@@ -4248,10 +4216,8 @@
           <t>Assets Liabilities Change (Total)</t>
         </is>
       </c>
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B29" s="0" t="n">
+        <v>-59600000.0</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>-10300000.0</v>
@@ -4544,10 +4510,8 @@
           <t>Issuance/Purchase of Shares</t>
         </is>
       </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B31" s="0" t="n">
+        <v>-122000000.0</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>-86700000.0</v>
